--- a/mathematicsinfosheet2324.xlsx
+++ b/mathematicsinfosheet2324.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcegbert/Desktop/MSTAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC19D5ED-8B27-4140-B54B-48F072BBBDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3EDC8146-F9CE-3745-823B-EE6BBDB96C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Mathematics!$A$1:$J$49</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Master of Statistics</t>
   </si>
@@ -193,9 +206,6 @@
     <t>Linear Models</t>
   </si>
   <si>
-    <t xml:space="preserve">Math 5030     </t>
-  </si>
-  <si>
     <t>Actuarial Mathematics</t>
   </si>
   <si>
@@ -283,6 +293,12 @@
   </si>
   <si>
     <t>Note: students can register for 1-6 hours of MATH 6960 making the total credit hours are 31-36.</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Math 5030*</t>
   </si>
 </sst>
 </file>
@@ -503,19 +519,46 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -524,49 +567,22 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -965,73 +981,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.4921875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.14453125" style="1"/>
+    <col min="4" max="4" width="11.8359375" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.14453125" style="1"/>
+    <col min="8" max="8" width="9.14453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="1" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="11" max="16384" width="9.14453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
@@ -1057,49 +1073,49 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:21" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="1:21" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+    </row>
+    <row r="9" spans="1:21" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="1:21" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1113,7 +1129,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1181,7 +1197,7 @@
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1192,45 +1208,45 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-    </row>
-    <row r="19" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1243,32 +1259,32 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A21" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="A21" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
@@ -1283,43 +1299,43 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="29" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="41" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -1327,11 +1343,11 @@
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="9"/>
       <c r="G26" s="10"/>
       <c r="H26" s="7"/>
@@ -1339,11 +1355,11 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="38"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
       <c r="H27" s="7"/>
@@ -1379,12 +1395,12 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1399,7 +1415,7 @@
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -1419,7 +1435,7 @@
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -1439,7 +1455,7 @@
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.15">
@@ -1469,62 +1485,62 @@
       <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="29" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="41" t="s">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="35" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="37"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="37"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="12"/>
@@ -1532,11 +1548,11 @@
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="37"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
@@ -1560,66 +1576,66 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F41" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
       <c r="J41" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F42" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F43" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
       <c r="J43" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.15">
@@ -1629,10 +1645,10 @@
       <c r="D44" s="10"/>
       <c r="E44" s="17"/>
       <c r="F44" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -1647,15 +1663,15 @@
       <c r="D45" s="10"/>
       <c r="E45" s="17"/>
       <c r="F45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.15">
@@ -1665,15 +1681,15 @@
       <c r="D46" s="10"/>
       <c r="E46" s="17"/>
       <c r="F46" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.15">
@@ -1696,19 +1712,35 @@
       <c r="E48" s="19"/>
       <c r="F48" s="18"/>
       <c r="G48" s="19"/>
-      <c r="H48" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I48" s="33"/>
-      <c r="J48" s="34"/>
+      <c r="H48" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="23"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:J4"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="K16:U16"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="H48:J48"/>
     <mergeCell ref="A37:E38"/>
     <mergeCell ref="F37:J39"/>
@@ -1718,17 +1750,6 @@
     <mergeCell ref="F35:J35"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="F36:J36"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A1:J4"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="K16:U16"/>
-    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
